--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartZoneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartZoneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\ET\Unity\Assets\Config\Excel\Datas\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ETPlus\Unity\Assets\Config\Excel\Datas\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81852461-4FC6-4579-99B1-7537E2DADEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED7B18E-0D2B-4004-B4AA-C73C5342672B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="2250" windowWidth="20775" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,32 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+使用本地数据库,则改为:
+mongodb://127.0.0.1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{88BF40D5-9008-42EC-B1D6-0E2C8224DA53}">
       <text>
         <r>
           <rPr>
@@ -55,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -69,9 +94,6 @@
     <t>DBName</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -90,9 +112,6 @@
     <t>数据库名</t>
   </si>
   <si>
-    <t>说明</t>
-  </si>
-  <si>
     <t>mongodb://127.0.0.1</t>
   </si>
   <si>
@@ -106,6 +125,34 @@
   </si>
   <si>
     <t>路由区</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>区服名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>区服类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -533,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -542,13 +589,15 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="5" customWidth="1"/>
-    <col min="4" max="5" width="21" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="11.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="5" customWidth="1"/>
+    <col min="6" max="7" width="21" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,79 +605,131 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8"/>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="5">
+        <v>111</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="10"/>
+      <c r="C5" s="5">
+        <v>222</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>16</v>
+      <c r="C6" s="9">
+        <v>333</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>444</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
